--- a/Libraries/Vehicle/Body/Trailer/sm_car_data_BodyGeometry_Trailer.xlsx
+++ b/Libraries/Vehicle/Body/Trailer/sm_car_data_BodyGeometry_Trailer.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\Trailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BD33D-90B8-41B9-B237-171F6960CCD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244EAE0-F169-4863-B5AB-201BBD642417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14508" yWindow="-108" windowWidth="14616" windowHeight="22800" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1485" yWindow="1320" windowWidth="21600" windowHeight="11430" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trailer_Elula" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic_Trailer_Elula" sheetId="1" r:id="rId1"/>
+    <sheet name="Box_Trailer_Kumanzi" sheetId="2" r:id="rId2"/>
+    <sheet name="Tank_Trailer_Kumanzi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Units</t>
   </si>
@@ -84,13 +88,55 @@
     <t>xHeight</t>
   </si>
   <si>
-    <t>Trailer_1Axle</t>
-  </si>
-  <si>
     <t>Roughly wheel radius + height/2</t>
   </si>
   <si>
-    <t>Trailer_Elula</t>
+    <t>Basic_Trailer</t>
+  </si>
+  <si>
+    <t>Basic_Trailer_Elula</t>
+  </si>
+  <si>
+    <t>Box_Trailer_Kumanzi</t>
+  </si>
+  <si>
+    <t>Box_Trailer</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>xBedOffset</t>
+  </si>
+  <si>
+    <t>Offset between Box Center and Bed Center along vehicle axis</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>xClearance</t>
+  </si>
+  <si>
+    <t>xRefBoxFront</t>
+  </si>
+  <si>
+    <t>Distance from Reference point to front of Box</t>
+  </si>
+  <si>
+    <t>Tank_Trailer_Kumanzi</t>
+  </si>
+  <si>
+    <t>Tank_Trailer</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>xRadius</t>
+  </si>
+  <si>
+    <t>Offset between Tank Center and Bed Center along vehicle axis</t>
   </si>
 </sst>
 </file>
@@ -155,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,6 +242,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,26 +572,26 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -554,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -568,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -582,7 +639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -593,11 +650,11 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -607,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -621,7 +678,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -637,7 +694,7 @@
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -653,7 +710,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -669,7 +726,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -689,7 +746,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -713,4 +770,619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4191B93-A295-42CE-AB55-514E6C056922}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B1BE3-0ABF-4E3B-AE91-3250E0EAB387}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>